--- a/Not OOP/MOptim/lab3.xlsx
+++ b/Not OOP/MOptim/lab3.xlsx
@@ -1864,11 +1864,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="194140800"/>
-        <c:axId val="194154880"/>
+        <c:axId val="118358016"/>
+        <c:axId val="118359552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194140800"/>
+        <c:axId val="118358016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,7 +1911,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194154880"/>
+        <c:crossAx val="118359552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1919,7 +1919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194154880"/>
+        <c:axId val="118359552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,7 +1970,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194140800"/>
+        <c:crossAx val="118358016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2406,11 +2406,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="195123840"/>
-        <c:axId val="195133824"/>
+        <c:axId val="124084224"/>
+        <c:axId val="124085760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195123840"/>
+        <c:axId val="124084224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,7 +2453,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195133824"/>
+        <c:crossAx val="124085760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2461,7 +2461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195133824"/>
+        <c:axId val="124085760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2512,7 +2512,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195123840"/>
+        <c:crossAx val="124084224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2526,7 +2526,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3559,8 +3558,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1818447" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -4042,7 +4041,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -4496,8 +4495,8 @@
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2239395" cy="942974"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20"/>
@@ -6669,7 +6668,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20"/>
@@ -14255,6 +14254,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="9525">
+          <a:noFill/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -15328,7 +15328,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15338,8 +15338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+    <sheetView tabSelected="1" topLeftCell="G39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W53" sqref="W53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
